--- a/static/List_of_equip.xlsx
+++ b/static/List_of_equip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Project\Project_SolarDIY(14-4-68)\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Project\Project_SolarDIY(27-4-68)\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A7B699-E0A8-443C-B827-D3C618C21193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8972296-DF25-48F2-8ACF-75727FC0EE86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-6168" windowWidth="21840" windowHeight="37920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-6168" windowWidth="21840" windowHeight="37920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="แบตแห้ง" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="581">
   <si>
     <t>Brand</t>
   </si>
@@ -1776,6 +1776,15 @@
   <si>
     <t>https://www.solartech-center.com/product/felicity-hybrid-on-off-grid-inverter-t-rex-10klp3g0110kva/11000154936001507</t>
   </si>
+  <si>
+    <t>https://globalhouse.co.th/product/JINYUAN-%E0%B9%81%E0%B8%9C%E0%B8%87%E0%B9%82%E0%B8%8B%E0%B8%A5%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%8B%E0%B8%A5%E0%B8%A5%E0%B9%8C-POLY-335W-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-JY335P72-POLYCRYSTALLINE-PV-MODULE-i.2012110639353</t>
+  </si>
+  <si>
+    <t>JINYUAN</t>
+  </si>
+  <si>
+    <t>JY335P72</t>
+  </si>
 </sst>
 </file>
 
@@ -1876,7 +1885,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2016,21 +2025,6 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2181,25 +2175,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2217,6 +2195,22 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3740,7 +3734,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="55" t="s">
         <v>552</v>
       </c>
     </row>
@@ -3917,22 +3911,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="56" t="s">
         <v>554</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="56" t="s">
         <v>557</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="56" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6025,7 +6019,7 @@
       <c r="W54" s="9"/>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="61" t="s">
         <v>116</v>
       </c>
       <c r="B55" s="47" t="s">
@@ -6062,7 +6056,7 @@
       <c r="W55" s="9"/>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="47" t="s">
         <v>107</v>
       </c>
@@ -6883,7 +6877,7 @@
       <c r="W76" s="9"/>
     </row>
     <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="61" t="s">
         <v>154</v>
       </c>
       <c r="B77" s="50"/>
@@ -6918,7 +6912,7 @@
       <c r="W77" s="9"/>
     </row>
     <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="58"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="51"/>
       <c r="C78" s="42" t="s">
         <v>153</v>
@@ -8302,7 +8296,7 @@
       <c r="W115" s="9"/>
     </row>
     <row r="116" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="57" t="s">
+      <c r="A116" s="61" t="s">
         <v>211</v>
       </c>
       <c r="B116" s="48" t="s">
@@ -8339,7 +8333,7 @@
       <c r="W116" s="9"/>
     </row>
     <row r="117" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="58"/>
+      <c r="A117" s="62"/>
       <c r="B117" s="49" t="s">
         <v>205</v>
       </c>
@@ -8524,7 +8518,7 @@
       <c r="W121" s="9"/>
     </row>
     <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="57" t="s">
+      <c r="A122" s="61" t="s">
         <v>223</v>
       </c>
       <c r="B122" s="50"/>
@@ -8559,7 +8553,7 @@
       <c r="W122" s="9"/>
     </row>
     <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="58"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="50"/>
       <c r="C123" s="42" t="s">
         <v>225</v>
@@ -9034,7 +9028,7 @@
       <c r="W135" s="9"/>
     </row>
     <row r="136" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="57" t="s">
+      <c r="A136" s="61" t="s">
         <v>245</v>
       </c>
       <c r="B136" s="47" t="s">
@@ -9071,7 +9065,7 @@
       <c r="W136" s="9"/>
     </row>
     <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="58"/>
+      <c r="A137" s="62"/>
       <c r="B137" s="47" t="s">
         <v>235</v>
       </c>
@@ -9466,7 +9460,7 @@
       <c r="W147" s="9"/>
     </row>
     <row r="148" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="57" t="s">
+      <c r="A148" s="61" t="s">
         <v>258</v>
       </c>
       <c r="B148" s="47" t="s">
@@ -9503,7 +9497,7 @@
       <c r="W148" s="9"/>
     </row>
     <row r="149" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="58"/>
+      <c r="A149" s="62"/>
       <c r="B149" s="47" t="s">
         <v>259</v>
       </c>
@@ -9692,7 +9686,7 @@
       <c r="W153" s="9"/>
     </row>
     <row r="154" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="57" t="s">
+      <c r="A154" s="61" t="s">
         <v>264</v>
       </c>
       <c r="B154" s="47" t="s">
@@ -9735,7 +9729,7 @@
       <c r="W154" s="9"/>
     </row>
     <row r="155" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="58"/>
+      <c r="A155" s="62"/>
       <c r="B155" s="47" t="s">
         <v>259</v>
       </c>
@@ -9918,7 +9912,7 @@
       <c r="W159" s="9"/>
     </row>
     <row r="160" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="57" t="s">
+      <c r="A160" s="61" t="s">
         <v>275</v>
       </c>
       <c r="B160" s="50"/>
@@ -9953,7 +9947,7 @@
       <c r="W160" s="9"/>
     </row>
     <row r="161" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="59"/>
+      <c r="A161" s="63"/>
       <c r="B161" s="50"/>
       <c r="C161" s="42" t="s">
         <v>277</v>
@@ -9986,7 +9980,7 @@
       <c r="W161" s="9"/>
     </row>
     <row r="162" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="58"/>
+      <c r="A162" s="62"/>
       <c r="B162" s="51"/>
       <c r="C162" s="42" t="s">
         <v>278</v>
@@ -12154,7 +12148,7 @@
       <c r="W221" s="9"/>
     </row>
     <row r="222" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="57" t="s">
+      <c r="A222" s="61" t="s">
         <v>352</v>
       </c>
       <c r="B222" s="47" t="s">
@@ -12191,7 +12185,7 @@
       <c r="W222" s="9"/>
     </row>
     <row r="223" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="58"/>
+      <c r="A223" s="62"/>
       <c r="B223" s="50"/>
       <c r="C223" s="42" t="s">
         <v>354</v>
@@ -12757,7 +12751,7 @@
       <c r="W238" s="9"/>
     </row>
     <row r="239" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="57" t="s">
+      <c r="A239" s="61" t="s">
         <v>373</v>
       </c>
       <c r="B239" s="50"/>
@@ -12792,7 +12786,7 @@
       <c r="W239" s="9"/>
     </row>
     <row r="240" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="58"/>
+      <c r="A240" s="62"/>
       <c r="B240" s="50"/>
       <c r="C240" s="42" t="s">
         <v>375</v>
@@ -13965,7 +13959,7 @@
       <c r="W272" s="9"/>
     </row>
     <row r="273" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="57" t="s">
+      <c r="A273" s="61" t="s">
         <v>414</v>
       </c>
       <c r="B273" s="50"/>
@@ -14000,7 +13994,7 @@
       <c r="W273" s="9"/>
     </row>
     <row r="274" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="58"/>
+      <c r="A274" s="62"/>
       <c r="B274" s="51"/>
       <c r="C274" s="42" t="s">
         <v>416</v>
@@ -32590,7 +32584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BD2526-29EE-4271-9E69-D12F4F0C9187}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -32723,7 +32717,7 @@
       <c r="G3" s="10">
         <v>90</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="54">
         <v>24</v>
       </c>
       <c r="I3" s="10">
@@ -32769,7 +32763,7 @@
       <c r="G4" s="10">
         <v>90</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="54">
         <v>24</v>
       </c>
       <c r="I4" s="10">
@@ -32813,7 +32807,7 @@
       <c r="G5" s="10">
         <v>90</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="54">
         <v>24</v>
       </c>
       <c r="I5" s="10">
@@ -32859,7 +32853,7 @@
       <c r="G6" s="10">
         <v>90</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="54">
         <v>48</v>
       </c>
       <c r="I6" s="10">
@@ -32905,7 +32899,7 @@
       <c r="G7" s="10">
         <v>90</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="54">
         <v>24</v>
       </c>
       <c r="I7" s="10">
@@ -32951,7 +32945,7 @@
       <c r="G8" s="10">
         <v>90</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="54">
         <v>48</v>
       </c>
       <c r="I8" s="10">
@@ -32997,7 +32991,7 @@
       <c r="G9" s="10">
         <v>90</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="54">
         <v>48</v>
       </c>
       <c r="I9" s="10">
@@ -33043,7 +33037,7 @@
       <c r="G10" s="10">
         <v>90</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="54">
         <v>12</v>
       </c>
       <c r="I10" s="10">
@@ -33089,7 +33083,7 @@
       <c r="G11" s="10">
         <v>85</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="54">
         <v>12</v>
       </c>
       <c r="I11" s="10">
@@ -33135,7 +33129,7 @@
       <c r="G12" s="10">
         <v>90</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="54">
         <v>12</v>
       </c>
       <c r="I12" s="10">
@@ -33181,7 +33175,7 @@
       <c r="G13" s="10">
         <v>90</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="54">
         <v>12</v>
       </c>
       <c r="I13" s="10">
@@ -33227,7 +33221,7 @@
       <c r="G14" s="10">
         <v>97.6</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="54">
         <v>48</v>
       </c>
       <c r="I14" s="10">
@@ -33273,7 +33267,7 @@
       <c r="G15" s="10">
         <v>97.6</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="54">
         <v>48</v>
       </c>
       <c r="I15" s="10">
@@ -33319,7 +33313,7 @@
       <c r="G16" s="10">
         <v>97.6</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="54">
         <v>48</v>
       </c>
       <c r="I16" s="10">
@@ -34408,7 +34402,7 @@
       <c r="X54" s="9"/>
     </row>
     <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="64" t="s">
         <v>116</v>
       </c>
       <c r="B55" s="23"/>
@@ -34436,7 +34430,7 @@
       <c r="X55" s="9"/>
     </row>
     <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="61"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="23"/>
       <c r="C56" s="22"/>
       <c r="D56" s="7"/>
@@ -35022,7 +35016,7 @@
       <c r="X76" s="9"/>
     </row>
     <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="60" t="s">
+      <c r="A77" s="64" t="s">
         <v>154</v>
       </c>
       <c r="B77" s="23"/>
@@ -35050,7 +35044,7 @@
       <c r="X77" s="9"/>
     </row>
     <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="61"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="23"/>
       <c r="C78" s="22"/>
       <c r="D78" s="7"/>
@@ -36112,7 +36106,7 @@
       <c r="X115" s="9"/>
     </row>
     <row r="116" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="60" t="s">
+      <c r="A116" s="64" t="s">
         <v>211</v>
       </c>
       <c r="B116" s="23"/>
@@ -36140,7 +36134,7 @@
       <c r="X116" s="9"/>
     </row>
     <row r="117" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="61"/>
+      <c r="A117" s="65"/>
       <c r="B117" s="23"/>
       <c r="C117" s="22"/>
       <c r="D117" s="7"/>
@@ -36278,7 +36272,7 @@
       <c r="X121" s="9"/>
     </row>
     <row r="122" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="60" t="s">
+      <c r="A122" s="64" t="s">
         <v>223</v>
       </c>
       <c r="B122" s="23"/>
@@ -36306,7 +36300,7 @@
       <c r="X122" s="9"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="61"/>
+      <c r="A123" s="65"/>
       <c r="B123" s="23"/>
       <c r="C123" s="22"/>
       <c r="D123" s="7"/>
@@ -36668,7 +36662,7 @@
       <c r="X135" s="9"/>
     </row>
     <row r="136" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="60" t="s">
+      <c r="A136" s="64" t="s">
         <v>245</v>
       </c>
       <c r="B136" s="23"/>
@@ -36696,7 +36690,7 @@
       <c r="X136" s="9"/>
     </row>
     <row r="137" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="61"/>
+      <c r="A137" s="65"/>
       <c r="B137" s="23"/>
       <c r="C137" s="22"/>
       <c r="D137" s="7"/>
@@ -37002,7 +36996,7 @@
       <c r="X147" s="9"/>
     </row>
     <row r="148" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="60" t="s">
+      <c r="A148" s="64" t="s">
         <v>258</v>
       </c>
       <c r="B148" s="21"/>
@@ -37030,7 +37024,7 @@
       <c r="X148" s="9"/>
     </row>
     <row r="149" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="61"/>
+      <c r="A149" s="65"/>
       <c r="B149" s="23"/>
       <c r="C149" s="22"/>
       <c r="D149" s="7"/>
@@ -37172,7 +37166,7 @@
       <c r="X153" s="9"/>
     </row>
     <row r="154" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="60" t="s">
+      <c r="A154" s="64" t="s">
         <v>264</v>
       </c>
       <c r="B154" s="23"/>
@@ -37204,7 +37198,7 @@
       <c r="X154" s="9"/>
     </row>
     <row r="155" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="61"/>
+      <c r="A155" s="65"/>
       <c r="B155" s="23"/>
       <c r="C155" s="22"/>
       <c r="D155" s="7"/>
@@ -37342,7 +37336,7 @@
       <c r="X159" s="9"/>
     </row>
     <row r="160" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="60" t="s">
+      <c r="A160" s="64" t="s">
         <v>275</v>
       </c>
       <c r="B160" s="23"/>
@@ -37370,7 +37364,7 @@
       <c r="X160" s="9"/>
     </row>
     <row r="161" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="62"/>
+      <c r="A161" s="66"/>
       <c r="B161" s="23"/>
       <c r="C161" s="22"/>
       <c r="D161" s="7"/>
@@ -37396,7 +37390,7 @@
       <c r="X161" s="9"/>
     </row>
     <row r="162" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="61"/>
+      <c r="A162" s="65"/>
       <c r="B162" s="23"/>
       <c r="C162" s="22"/>
       <c r="D162" s="7"/>
@@ -39078,7 +39072,7 @@
       <c r="X221" s="9"/>
     </row>
     <row r="222" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="60" t="s">
+      <c r="A222" s="64" t="s">
         <v>352</v>
       </c>
       <c r="B222" s="21"/>
@@ -39106,7 +39100,7 @@
       <c r="X222" s="9"/>
     </row>
     <row r="223" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="61"/>
+      <c r="A223" s="65"/>
       <c r="B223" s="23"/>
       <c r="C223" s="22"/>
       <c r="D223" s="7"/>
@@ -39552,7 +39546,7 @@
       <c r="X238" s="9"/>
     </row>
     <row r="239" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="60" t="s">
+      <c r="A239" s="64" t="s">
         <v>373</v>
       </c>
       <c r="B239" s="23"/>
@@ -39580,7 +39574,7 @@
       <c r="X239" s="9"/>
     </row>
     <row r="240" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="61"/>
+      <c r="A240" s="65"/>
       <c r="B240" s="23"/>
       <c r="C240" s="22"/>
       <c r="D240" s="7"/>
@@ -40502,7 +40496,7 @@
       <c r="X272" s="9"/>
     </row>
     <row r="273" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="60" t="s">
+      <c r="A273" s="64" t="s">
         <v>414</v>
       </c>
       <c r="B273" s="23"/>
@@ -40530,7 +40524,7 @@
       <c r="X273" s="9"/>
     </row>
     <row r="274" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="61"/>
+      <c r="A274" s="65"/>
       <c r="B274" s="23"/>
       <c r="C274" s="22"/>
       <c r="D274" s="7"/>
@@ -59523,10 +59517,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34873BB-7CF5-4D3A-BC22-3A741F81A476}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -59585,10 +59579,10 @@
         <v>435</v>
       </c>
       <c r="E2" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F2" s="52">
         <v>1722</v>
-      </c>
-      <c r="F2" s="52">
-        <v>1134</v>
       </c>
       <c r="G2" s="52">
         <v>30</v>
@@ -59601,7 +59595,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="52">
         <v>2</v>
       </c>
@@ -59615,10 +59609,10 @@
         <v>555</v>
       </c>
       <c r="E3" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F3" s="52">
         <v>2278</v>
-      </c>
-      <c r="F3" s="52">
-        <v>1134</v>
       </c>
       <c r="G3" s="52">
         <v>35</v>
@@ -59631,7 +59625,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
         <v>3</v>
       </c>
@@ -59645,10 +59639,10 @@
         <v>550</v>
       </c>
       <c r="E4" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F4" s="52">
         <v>2278</v>
-      </c>
-      <c r="F4" s="52">
-        <v>1134</v>
       </c>
       <c r="G4" s="52">
         <v>35</v>
@@ -59657,11 +59651,11 @@
         <v>2730</v>
       </c>
       <c r="I4" s="52"/>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="67" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>4</v>
       </c>
@@ -59675,10 +59669,10 @@
         <v>560</v>
       </c>
       <c r="E5" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F5" s="52">
         <v>2278</v>
-      </c>
-      <c r="F5" s="52">
-        <v>1134</v>
       </c>
       <c r="G5" s="52">
         <v>35</v>
@@ -59687,11 +59681,11 @@
         <v>2750</v>
       </c>
       <c r="I5" s="52"/>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="68" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
         <v>5</v>
       </c>
@@ -59705,10 +59699,10 @@
         <v>570</v>
       </c>
       <c r="E6" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F6" s="52">
         <v>2278</v>
-      </c>
-      <c r="F6" s="52">
-        <v>1134</v>
       </c>
       <c r="G6" s="52">
         <v>35</v>
@@ -59717,11 +59711,11 @@
         <v>2750</v>
       </c>
       <c r="I6" s="52"/>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="68" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <v>6</v>
       </c>
@@ -59735,10 +59729,10 @@
         <v>580</v>
       </c>
       <c r="E7" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F7" s="52">
         <v>2278</v>
-      </c>
-      <c r="F7" s="52">
-        <v>1134</v>
       </c>
       <c r="G7" s="52">
         <v>35</v>
@@ -59747,11 +59741,11 @@
         <v>3260</v>
       </c>
       <c r="I7" s="52"/>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="68" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>7</v>
       </c>
@@ -59765,10 +59759,10 @@
         <v>620</v>
       </c>
       <c r="E8" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F8" s="52">
         <v>2382</v>
-      </c>
-      <c r="F8" s="52">
-        <v>1134</v>
       </c>
       <c r="G8" s="52">
         <v>30</v>
@@ -59777,11 +59771,11 @@
         <v>3350</v>
       </c>
       <c r="I8" s="52"/>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="68" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="52">
         <v>8</v>
       </c>
@@ -59795,10 +59789,10 @@
         <v>630</v>
       </c>
       <c r="E9" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F9" s="52">
         <v>2465</v>
-      </c>
-      <c r="F9" s="52">
-        <v>1134</v>
       </c>
       <c r="G9" s="52">
         <v>30</v>
@@ -59807,11 +59801,11 @@
         <v>3510</v>
       </c>
       <c r="I9" s="52"/>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="68" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
         <v>9</v>
       </c>
@@ -59825,10 +59819,10 @@
         <v>555</v>
       </c>
       <c r="E10" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F10" s="52">
         <v>2278</v>
-      </c>
-      <c r="F10" s="52">
-        <v>1134</v>
       </c>
       <c r="G10" s="52">
         <v>35</v>
@@ -59837,11 +59831,11 @@
         <v>2800</v>
       </c>
       <c r="I10" s="52"/>
-      <c r="J10" s="55" t="s">
+      <c r="J10" s="68" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>10</v>
       </c>
@@ -59855,10 +59849,10 @@
         <v>560</v>
       </c>
       <c r="E11" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F11" s="52">
         <v>2278</v>
-      </c>
-      <c r="F11" s="52">
-        <v>1134</v>
       </c>
       <c r="G11" s="52">
         <v>35</v>
@@ -59867,11 +59861,11 @@
         <v>2800</v>
       </c>
       <c r="I11" s="52"/>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="68" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>11</v>
       </c>
@@ -59885,10 +59879,10 @@
         <v>580</v>
       </c>
       <c r="E12" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F12" s="52">
         <v>2278</v>
-      </c>
-      <c r="F12" s="52">
-        <v>1134</v>
       </c>
       <c r="G12" s="52">
         <v>35</v>
@@ -59897,11 +59891,11 @@
         <v>2800</v>
       </c>
       <c r="I12" s="52"/>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="68" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
         <v>12</v>
       </c>
@@ -59915,10 +59909,10 @@
         <v>620</v>
       </c>
       <c r="E13" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F13" s="52">
         <v>2465</v>
-      </c>
-      <c r="F13" s="52">
-        <v>1134</v>
       </c>
       <c r="G13" s="52">
         <v>35</v>
@@ -59927,11 +59921,11 @@
         <v>2950</v>
       </c>
       <c r="I13" s="52"/>
-      <c r="J13" s="55" t="s">
+      <c r="J13" s="68" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="52">
         <v>13</v>
       </c>
@@ -59945,10 +59939,10 @@
         <v>705</v>
       </c>
       <c r="E14" s="52">
+        <v>1303</v>
+      </c>
+      <c r="F14" s="52">
         <v>2384</v>
-      </c>
-      <c r="F14" s="52">
-        <v>1303</v>
       </c>
       <c r="G14" s="52">
         <v>33</v>
@@ -59957,11 +59951,11 @@
         <v>3750</v>
       </c>
       <c r="I14" s="52"/>
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="68" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
         <v>14</v>
       </c>
@@ -59975,10 +59969,10 @@
         <v>570</v>
       </c>
       <c r="E15" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F15" s="52">
         <v>2278</v>
-      </c>
-      <c r="F15" s="52">
-        <v>1134</v>
       </c>
       <c r="G15" s="52">
         <v>30</v>
@@ -59987,11 +59981,11 @@
         <v>3180</v>
       </c>
       <c r="I15" s="52"/>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="68" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
         <v>15</v>
       </c>
@@ -60005,10 +59999,10 @@
         <v>550</v>
       </c>
       <c r="E16" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F16" s="52">
         <v>2279</v>
-      </c>
-      <c r="F16" s="52">
-        <v>1134</v>
       </c>
       <c r="G16" s="52">
         <v>35</v>
@@ -60017,11 +60011,11 @@
         <v>2860</v>
       </c>
       <c r="I16" s="52"/>
-      <c r="J16" s="55" t="s">
+      <c r="J16" s="68" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="52">
         <v>16</v>
       </c>
@@ -60035,10 +60029,10 @@
         <v>450</v>
       </c>
       <c r="E17" s="52">
+        <v>1040</v>
+      </c>
+      <c r="F17" s="52">
         <v>2102</v>
-      </c>
-      <c r="F17" s="52">
-        <v>1040</v>
       </c>
       <c r="G17" s="52">
         <v>35</v>
@@ -60047,11 +60041,11 @@
         <v>2400</v>
       </c>
       <c r="I17" s="52"/>
-      <c r="J17" s="55" t="s">
+      <c r="J17" s="68" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="52">
         <v>17</v>
       </c>
@@ -60065,10 +60059,10 @@
         <v>550</v>
       </c>
       <c r="E18" s="52">
+        <v>1133</v>
+      </c>
+      <c r="F18" s="52">
         <v>2256</v>
-      </c>
-      <c r="F18" s="52">
-        <v>1133</v>
       </c>
       <c r="G18" s="52">
         <v>35</v>
@@ -60077,11 +60071,11 @@
         <v>2780</v>
       </c>
       <c r="I18" s="52"/>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="68" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="52">
         <v>18</v>
       </c>
@@ -60095,10 +60089,10 @@
         <v>550</v>
       </c>
       <c r="E19" s="52">
+        <v>1138</v>
+      </c>
+      <c r="F19" s="52">
         <v>2279</v>
-      </c>
-      <c r="F19" s="52">
-        <v>1138</v>
       </c>
       <c r="G19" s="52">
         <v>35</v>
@@ -60107,11 +60101,11 @@
         <v>2750</v>
       </c>
       <c r="I19" s="52"/>
-      <c r="J19" s="55" t="s">
+      <c r="J19" s="68" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="52">
         <v>19</v>
       </c>
@@ -60125,10 +60119,10 @@
         <v>550</v>
       </c>
       <c r="E20" s="52">
+        <v>1133</v>
+      </c>
+      <c r="F20" s="52">
         <v>2256</v>
-      </c>
-      <c r="F20" s="52">
-        <v>1133</v>
       </c>
       <c r="G20" s="52">
         <v>35</v>
@@ -60137,11 +60131,11 @@
         <v>2900</v>
       </c>
       <c r="I20" s="52"/>
-      <c r="J20" s="55" t="s">
+      <c r="J20" s="68" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="52">
         <v>20</v>
       </c>
@@ -60155,10 +60149,10 @@
         <v>550</v>
       </c>
       <c r="E21" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F21" s="52">
         <v>2261</v>
-      </c>
-      <c r="F21" s="52">
-        <v>1134</v>
       </c>
       <c r="G21" s="52">
         <v>35</v>
@@ -60167,11 +60161,11 @@
         <v>2350</v>
       </c>
       <c r="I21" s="52"/>
-      <c r="J21" s="55" t="s">
+      <c r="J21" s="68" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="52">
         <v>21</v>
       </c>
@@ -60185,10 +60179,10 @@
         <v>450</v>
       </c>
       <c r="E22" s="52">
+        <v>1038</v>
+      </c>
+      <c r="F22" s="52">
         <v>2090</v>
-      </c>
-      <c r="F22" s="52">
-        <v>1038</v>
       </c>
       <c r="G22" s="52">
         <v>35</v>
@@ -60197,11 +60191,11 @@
         <v>2500</v>
       </c>
       <c r="I22" s="52"/>
-      <c r="J22" s="55" t="s">
+      <c r="J22" s="68" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="52">
         <v>22</v>
       </c>
@@ -60215,10 +60209,10 @@
         <v>550</v>
       </c>
       <c r="E23" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F23" s="52">
         <v>2278</v>
-      </c>
-      <c r="F23" s="52">
-        <v>1134</v>
       </c>
       <c r="G23" s="52">
         <v>35</v>
@@ -60227,11 +60221,11 @@
         <v>2850</v>
       </c>
       <c r="I23" s="52"/>
-      <c r="J23" s="55" t="s">
+      <c r="J23" s="68" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="52">
         <v>23</v>
       </c>
@@ -60245,10 +60239,10 @@
         <v>400</v>
       </c>
       <c r="E24" s="52">
+        <v>1134</v>
+      </c>
+      <c r="F24" s="52">
         <v>1722</v>
-      </c>
-      <c r="F24" s="52">
-        <v>1134</v>
       </c>
       <c r="G24" s="52">
         <v>35</v>
@@ -60257,11 +60251,11 @@
         <v>2500</v>
       </c>
       <c r="I24" s="52"/>
-      <c r="J24" s="55" t="s">
+      <c r="J24" s="68" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="52">
         <v>24</v>
       </c>
@@ -60275,10 +60269,10 @@
         <v>450</v>
       </c>
       <c r="E25" s="52">
+        <v>1105</v>
+      </c>
+      <c r="F25" s="52">
         <v>1981</v>
-      </c>
-      <c r="F25" s="52">
-        <v>1105</v>
       </c>
       <c r="G25" s="52">
         <v>35</v>
@@ -60287,11 +60281,11 @@
         <v>2500</v>
       </c>
       <c r="I25" s="52"/>
-      <c r="J25" s="55" t="s">
+      <c r="J25" s="68" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="52">
         <v>25</v>
       </c>
@@ -60305,10 +60299,10 @@
         <v>600</v>
       </c>
       <c r="E26" s="52">
+        <v>1303</v>
+      </c>
+      <c r="F26" s="52">
         <v>2182</v>
-      </c>
-      <c r="F26" s="52">
-        <v>1303</v>
       </c>
       <c r="G26" s="52">
         <v>35</v>
@@ -60317,8 +60311,38 @@
         <v>3500</v>
       </c>
       <c r="I26" s="52"/>
-      <c r="J26" s="55" t="s">
+      <c r="J26" s="68" t="s">
         <v>546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="52">
+        <v>26</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>579</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>580</v>
+      </c>
+      <c r="D27" s="52">
+        <v>330</v>
+      </c>
+      <c r="E27" s="52">
+        <v>990</v>
+      </c>
+      <c r="F27" s="52">
+        <v>1956</v>
+      </c>
+      <c r="G27" s="52">
+        <v>35</v>
+      </c>
+      <c r="H27" s="52">
+        <v>1290</v>
+      </c>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -60363,25 +60387,25 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="13.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="57" customWidth="1"/>
     <col min="5" max="5" width="13.69921875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="59" t="s">
         <v>559</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="59" t="s">
         <v>25</v>
       </c>
     </row>
@@ -60395,10 +60419,10 @@
       <c r="C2" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="57">
         <v>3040</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="58" t="s">
         <v>561</v>
       </c>
     </row>
@@ -60412,10 +60436,10 @@
       <c r="C3" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="57">
         <v>5810</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="58" t="s">
         <v>563</v>
       </c>
     </row>
@@ -60429,10 +60453,10 @@
       <c r="C4" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="57">
         <v>6880</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="58" t="s">
         <v>567</v>
       </c>
     </row>
@@ -60446,10 +60470,10 @@
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="57">
         <v>1270</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="58" t="s">
         <v>566</v>
       </c>
     </row>
@@ -60463,7 +60487,7 @@
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="57">
         <v>2440</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -60480,7 +60504,7 @@
       <c r="C7" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="57">
         <v>3200</v>
       </c>
       <c r="E7" s="2" t="s">
